--- a/data/trans_orig/P33_1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33_1_2023-Habitat-trans_orig.xlsx
@@ -563,7 +563,7 @@
         <v>7.147722263839957</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>6.921458412066846</v>
+        <v>6.921458412066844</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>7.03161424839526</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.054091863897235</v>
+        <v>7.063079449327727</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.838894519433416</v>
+        <v>6.848962483756633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.974811263900304</v>
+        <v>6.969530386772956</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.23051131001042</v>
+        <v>7.228514244919066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.996314937665852</v>
+        <v>6.994177583043289</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.089577797866492</v>
+        <v>7.08583241421954</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>7.2250669239363</v>
+        <v>7.225066923936301</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>7.098273015451376</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.16101126502411</v>
+        <v>7.158665372508256</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.0279497910008</v>
+        <v>7.033285458605172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.117185093111604</v>
+        <v>7.108747182261094</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.297447123715844</v>
+        <v>7.29183695138054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.163182088935624</v>
+        <v>7.164986050012125</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.208269680866012</v>
+        <v>7.205291799375095</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>7.115044344487566</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.036699767791843</v>
+        <v>7.036699767791844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.0751834341533</v>
+        <v>7.075183434153301</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.029305510290306</v>
+        <v>7.029030288200496</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.959108305694</v>
+        <v>6.957515122513584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.015220120282686</v>
+        <v>7.01728234013631</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.207261245775611</v>
+        <v>7.207154435896917</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.116067964818852</v>
+        <v>7.117134048479678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.136823936882328</v>
+        <v>7.135203076420011</v>
       </c>
     </row>
     <row r="13">
@@ -725,13 +725,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>7.018497277642374</v>
+        <v>7.018497277642375</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6.952792623050097</v>
+        <v>6.952792623050098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.983706648680498</v>
+        <v>6.983706648680497</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.9448380002519</v>
+        <v>6.939447481768782</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.884990158941868</v>
+        <v>6.889596443580148</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.937405029391209</v>
+        <v>6.930841083233821</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.088027441524015</v>
+        <v>7.089394774527201</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.019881059770753</v>
+        <v>7.019040079529165</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.036425597566833</v>
+        <v>7.034383824396769</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>7.126419049499287</v>
+        <v>7.126419049499288</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.005746247991383</v>
+        <v>7.005746247991382</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>7.064413261597092</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.08490770125211</v>
+        <v>7.088979830651822</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.970102600844934</v>
+        <v>6.971439956121181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.040778996834971</v>
+        <v>7.037436578475653</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.164898046455233</v>
+        <v>7.166555556891459</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.04268076203464</v>
+        <v>7.04144963383848</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.092185061815448</v>
+        <v>7.091153603220074</v>
       </c>
     </row>
     <row r="19">
